--- a/Unit_Test_Task_1.xlsx
+++ b/Unit_Test_Task_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>S/No.</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Input  15, 35</t>
   </si>
   <si>
-    <t>fizzbuzz, 16, 17, fizz, 19,buzz, fizz, 22, 23, fizz, buzz, 26, fizz, 28, 29, fizzbuzz, 31, 32, fizz, 34, buzz</t>
-  </si>
-  <si>
     <t>Input 176, 196</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>176 Fizz 178 179 FizzBuzz 181 182 Fizz 184 Buzz Fizz Bazz 188 Fizz Buzz Bazz Fizz 193 194 FizzBuzz 196 </t>
+  </si>
+  <si>
+    <t>1 2 Fizz 4 Buzz </t>
+  </si>
+  <si>
+    <t>FizzBuzz 16 17 Fizz 19 Buzz Fizz 22 23 Fizz Buzz 26 Fizz 28 29 FizzBuzz 31 32 Fizz 34 Buzz </t>
+  </si>
+  <si>
+    <t>Task 1 : Solution 1</t>
+  </si>
+  <si>
+    <t>Task1 : Solution 2</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -128,6 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +442,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A3:D8"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +456,11 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -509,8 +524,8 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -524,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -541,10 +556,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A3:D10"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,6 +570,11 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -633,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -644,10 +664,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -658,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
